--- a/Swag_Labs_Manual_Testing.xlsx
+++ b/Swag_Labs_Manual_Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DepiSwTesting\finalProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DepiSwTesting\finalProj\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A647476-272C-4D15-AD72-7A6BB0B82A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7B4DC9-301A-4A3D-82D5-239D97835715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Info" sheetId="8" r:id="rId1"/>
@@ -2947,9 +2947,6 @@
 Then the system must authenticate the user successfully
 And redirect them to the Products page.
 </t>
-  </si>
-  <si>
-    <t>SIQ_007</t>
   </si>
   <si>
     <t>Incorrect Status ("Failed") for TC_007 - Locked-Out User Login Test</t>
@@ -3612,9 +3609,6 @@
     <t>critical</t>
   </si>
   <si>
-    <t>BUG_1</t>
-  </si>
-  <si>
     <t>Cart and Product Buttons Become Out of Sync After Rapid Quantity Changes</t>
   </si>
   <si>
@@ -3625,9 +3619,6 @@
   </si>
   <si>
     <t xml:space="preserve">After choosing multi products and resetting to initial state (Reset APP State) , the cart displays 0 but the buttons of the products still say "remove" not add </t>
-  </si>
-  <si>
-    <t>BUG_2</t>
   </si>
   <si>
     <t>Missing Product Images and Incorrect Product Name Rendering in Cart</t>
@@ -3642,15 +3633,9 @@
 which is a severe visual glitch</t>
   </si>
   <si>
-    <t>BUG_3</t>
-  </si>
-  <si>
     <t>Checkout Allows Submission With Missing Required Fields</t>
   </si>
   <si>
-    <t>BUG_4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> System Allows Checkout With Empty Cart</t>
   </si>
   <si>
@@ -3775,6 +3760,21 @@
   </si>
   <si>
     <t>TC_091</t>
+  </si>
+  <si>
+    <t>SIQ_001</t>
+  </si>
+  <si>
+    <t>BUG_024</t>
+  </si>
+  <si>
+    <t>BUG_025</t>
+  </si>
+  <si>
+    <t>BUG_026</t>
+  </si>
+  <si>
+    <t>BUG_027</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4604,19 +4604,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4735,6 +4723,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <u val="none"/>
         <color rgb="FFFF0000"/>
@@ -4798,9 +4791,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4808,7 +4803,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4828,14 +4823,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4884,13 +4872,19 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4921,34 +4915,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4967,6 +4938,23 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5043,13 +5031,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5061,11 +5044,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -5080,7 +5058,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5091,6 +5069,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5581,7 +5569,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.549999999999997" customHeight="1" thickBot="1">
@@ -5589,7 +5577,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32.549999999999997" customHeight="1" thickBot="1">
@@ -6945,7 +6933,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C67" s="84" t="s">
         <v>819</v>
@@ -6965,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C68" s="84" t="s">
         <v>819</v>
@@ -6985,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C69" s="85" t="s">
         <v>819</v>
@@ -7005,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C70" s="85" t="s">
         <v>819</v>
@@ -7025,7 +7013,7 @@
         <v>103</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C71" s="84" t="s">
         <v>819</v>
@@ -7045,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C72" s="84" t="s">
         <v>819</v>
@@ -7065,7 +7053,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C73" s="84" t="s">
         <v>819</v>
@@ -7085,7 +7073,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C74" s="84" t="s">
         <v>819</v>
@@ -7105,10 +7093,10 @@
         <v>15</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D75" s="84" t="s">
         <v>296</v>
@@ -7125,7 +7113,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C76" s="84" t="s">
         <v>819</v>
@@ -7145,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C77" s="85"/>
       <c r="D77" s="85"/>
@@ -7159,7 +7147,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C78" s="84" t="s">
         <v>819</v>
@@ -7179,7 +7167,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C79" s="84" t="s">
         <v>819</v>
@@ -7199,7 +7187,7 @@
         <v>103</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C80" s="84" t="s">
         <v>834</v>
@@ -7219,7 +7207,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C81" s="84" t="s">
         <v>80</v>
@@ -7239,7 +7227,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C82" s="84" t="s">
         <v>80</v>
@@ -7259,7 +7247,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C83" s="84" t="s">
         <v>80</v>
@@ -7279,13 +7267,13 @@
         <v>15</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C84" s="84" t="s">
         <v>80</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E84" s="31" t="s">
         <v>82</v>
@@ -7299,7 +7287,7 @@
         <v>104</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C85" s="84" t="s">
         <v>834</v>
@@ -7319,7 +7307,7 @@
         <v>105</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C86" s="84" t="s">
         <v>80</v>
@@ -7339,7 +7327,7 @@
         <v>106</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C87" s="84" t="s">
         <v>834</v>
@@ -7359,7 +7347,7 @@
         <v>107</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C88" s="84" t="s">
         <v>80</v>
@@ -8372,10 +8360,10 @@
         <v>6</v>
       </c>
       <c r="C70" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="D70" t="s">
         <v>922</v>
-      </c>
-      <c r="D70" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="36.450000000000003" customHeight="1">
@@ -8386,10 +8374,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D71" t="s">
         <v>924</v>
-      </c>
-      <c r="D71" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="25.5" customHeight="1">
@@ -8400,10 +8388,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="D72" t="s">
         <v>926</v>
-      </c>
-      <c r="D72" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="40.5" customHeight="1">
@@ -8414,10 +8402,10 @@
         <v>10</v>
       </c>
       <c r="C73" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="D73" t="s">
         <v>928</v>
-      </c>
-      <c r="D73" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="25.5" customHeight="1">
@@ -8428,10 +8416,10 @@
         <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="25.5" customHeight="1">
@@ -8442,10 +8430,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="25.5" customHeight="1">
@@ -8456,10 +8444,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="25.5" customHeight="1">
@@ -8470,10 +8458,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="25.5" customHeight="1">
@@ -8484,10 +8472,10 @@
         <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="25.5" customHeight="1">
@@ -8498,10 +8486,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="25.5" customHeight="1">
@@ -8512,10 +8500,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="25.5" customHeight="1">
@@ -8526,10 +8514,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="25.5" customHeight="1">
@@ -8540,10 +8528,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.5" customHeight="1">
@@ -8554,10 +8542,10 @@
         <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="67.05" customHeight="1">
@@ -8568,10 +8556,10 @@
         <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.5" customHeight="1">
@@ -8582,10 +8570,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="25.5" customHeight="1">
@@ -8596,10 +8584,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5" customHeight="1">
@@ -8610,10 +8598,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" customHeight="1">
@@ -8624,10 +8612,10 @@
         <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="25.5" customHeight="1">
@@ -8638,10 +8626,10 @@
         <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="25.5" customHeight="1">
@@ -8652,10 +8640,10 @@
         <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="25.5" customHeight="1">
@@ -8666,10 +8654,10 @@
         <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="25.5" customHeight="1">
@@ -8745,7 +8733,32 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId4" name="Control 2">
+        <control shapeId="3073" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1752600</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>289560</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8765,32 +8778,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId4" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1752600</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>289560</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId6" name="Control 1"/>
+        <control shapeId="3074" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8801,7 +8789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -8876,14 +8864,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>252</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="119" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="80" t="s">
@@ -8926,14 +8914,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="3" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="81" t="s">
         <v>253</v>
       </c>
       <c r="B3" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="119" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="81" t="s">
@@ -8976,14 +8964,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="4" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A4" s="81" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="119" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="80" t="s">
@@ -9026,14 +9014,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="5" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A5" s="81" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="81" t="s">
@@ -9076,14 +9064,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="6" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A6" s="81" t="s">
         <v>256</v>
       </c>
       <c r="B6" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="119" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="81" t="s">
@@ -9126,14 +9114,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="7" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A7" s="81" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="119" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="81" t="s">
@@ -9176,14 +9164,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="8" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="81" t="s">
@@ -9226,14 +9214,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="9" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="81" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="119" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="81" t="s">
@@ -9276,14 +9264,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="10" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="119" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="80" t="s">
@@ -9326,14 +9314,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="11" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A11" s="81" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="119" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="81" t="s">
@@ -9376,14 +9364,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="12" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A12" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="119" t="s">
         <v>105</v>
       </c>
       <c r="D12" s="81" t="s">
@@ -9426,14 +9414,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="13" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A13" s="81" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="119" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="80" t="s">
@@ -9476,14 +9464,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="14" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A14" s="81" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="119" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="81" t="s">
@@ -9526,14 +9514,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="15" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A15" s="81" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="119" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="81" t="s">
@@ -9576,14 +9564,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="16" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A16" s="81" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="119" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="81" t="s">
@@ -9626,14 +9614,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="17" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="81" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="119" t="s">
         <v>110</v>
       </c>
       <c r="D17" s="81" t="s">
@@ -9676,14 +9664,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="18" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A18" s="81" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="119" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="81" t="s">
@@ -9726,14 +9714,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="19" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A19" s="81" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="119" t="s">
         <v>112</v>
       </c>
       <c r="D19" s="81" t="s">
@@ -9776,14 +9764,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="20" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A20" s="81" t="s">
         <v>257</v>
       </c>
       <c r="B20" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="119" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="81" t="s">
@@ -9826,14 +9814,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="21" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A21" s="81" t="s">
         <v>258</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="119" t="s">
         <v>114</v>
       </c>
       <c r="D21" s="80" t="s">
@@ -9876,14 +9864,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="22" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A22" s="81" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="119" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="81" t="s">
@@ -9926,14 +9914,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="23" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A23" s="81" t="s">
         <v>260</v>
       </c>
       <c r="B23" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="119" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="81" t="s">
@@ -9976,14 +9964,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="24" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A24" s="81" t="s">
         <v>261</v>
       </c>
       <c r="B24" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="119" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -10026,17 +10014,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="139" customFormat="1" ht="43.5" customHeight="1">
+    <row r="25" spans="1:16" s="135" customFormat="1" ht="43.5" customHeight="1">
       <c r="A25" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="122" t="s">
         <v>501</v>
       </c>
       <c r="E25" s="81" t="s">
@@ -10080,10 +10068,10 @@
       <c r="A26" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="124" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="81" t="s">
@@ -10130,10 +10118,10 @@
       <c r="A27" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="124" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="81" t="s">
@@ -10180,10 +10168,10 @@
       <c r="A28" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="81" t="s">
@@ -10230,10 +10218,10 @@
       <c r="A29" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="124" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="81" t="s">
@@ -10280,10 +10268,10 @@
       <c r="A30" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="124" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="81" t="s">
@@ -10330,10 +10318,10 @@
       <c r="A31" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="81" t="s">
@@ -10380,34 +10368,34 @@
       <c r="A32" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="127" t="s">
         <v>506</v>
       </c>
-      <c r="E32" s="131" t="s">
+      <c r="E32" s="127" t="s">
         <v>507</v>
       </c>
-      <c r="F32" s="131" t="s">
+      <c r="F32" s="127" t="s">
         <v>508</v>
       </c>
-      <c r="G32" s="131" t="s">
+      <c r="G32" s="127" t="s">
         <v>509</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="127" t="s">
         <v>323</v>
       </c>
-      <c r="I32" s="131" t="s">
+      <c r="I32" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="131" t="s">
+      <c r="J32" s="127" t="s">
         <v>319</v>
       </c>
-      <c r="K32" s="131" t="s">
+      <c r="K32" s="127" t="s">
         <v>318</v>
       </c>
       <c r="L32" s="62" t="s">
@@ -10426,14 +10414,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="139" customFormat="1" ht="129.6">
+    <row r="33" spans="1:16" s="135" customFormat="1" ht="129.6">
       <c r="A33" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="124" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="81" t="s">
@@ -10480,10 +10468,10 @@
       <c r="A34" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="C34" s="129" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="81" t="s">
@@ -10530,10 +10518,10 @@
       <c r="A35" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="124" t="s">
         <v>105</v>
       </c>
       <c r="D35" s="81" t="s">
@@ -10580,10 +10568,10 @@
       <c r="A36" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="124" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="81" t="s">
@@ -10630,10 +10618,10 @@
       <c r="A37" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="127" t="s">
+      <c r="B37" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="124" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="81" t="s">
@@ -10680,10 +10668,10 @@
       <c r="A38" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="124" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="81" t="s">
@@ -10730,10 +10718,10 @@
       <c r="A39" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="124" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="81" t="s">
@@ -10780,10 +10768,10 @@
       <c r="A40" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="124" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="81" t="s">
@@ -10830,10 +10818,10 @@
       <c r="A41" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D41" s="81" t="s">
@@ -10880,10 +10868,10 @@
       <c r="A42" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="124" t="s">
         <v>112</v>
       </c>
       <c r="D42" s="81" t="s">
@@ -10930,10 +10918,10 @@
       <c r="A43" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="124" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="81" t="s">
@@ -10980,10 +10968,10 @@
       <c r="A44" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="124" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="81" t="s">
@@ -11030,10 +11018,10 @@
       <c r="A45" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="128" t="s">
+      <c r="C45" s="124" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="81" t="s">
@@ -11080,10 +11068,10 @@
       <c r="A46" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="81" t="s">
@@ -11130,10 +11118,10 @@
       <c r="A47" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="128" t="s">
+      <c r="C47" s="124" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="81" t="s">
@@ -11180,10 +11168,10 @@
       <c r="A48" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="129" t="s">
         <v>214</v>
       </c>
       <c r="D48" s="81" t="s">
@@ -11230,10 +11218,10 @@
       <c r="A49" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="128" t="s">
+      <c r="C49" s="124" t="s">
         <v>106</v>
       </c>
       <c r="D49" s="81" t="s">
@@ -11280,10 +11268,10 @@
       <c r="A50" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="124" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="81" t="s">
@@ -11330,10 +11318,10 @@
       <c r="A51" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="B51" s="127" t="s">
+      <c r="B51" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D51" s="81" t="s">
@@ -11380,10 +11368,10 @@
       <c r="A52" s="81" t="s">
         <v>545</v>
       </c>
-      <c r="B52" s="127" t="s">
+      <c r="B52" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="81" t="s">
@@ -11430,10 +11418,10 @@
       <c r="A53" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="124" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="81" t="s">
@@ -11480,10 +11468,10 @@
       <c r="A54" s="81" t="s">
         <v>547</v>
       </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="128" t="s">
+      <c r="C54" s="124" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="81" t="s">
@@ -11530,10 +11518,10 @@
       <c r="A55" s="81" t="s">
         <v>548</v>
       </c>
-      <c r="B55" s="129" t="s">
+      <c r="B55" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="130" t="s">
+      <c r="C55" s="126" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="81" t="s">
@@ -11578,12 +11566,12 @@
     </row>
     <row r="56" spans="1:16" ht="57.6">
       <c r="A56" s="81" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B56" s="129" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B56" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="126" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="81" t="s">
@@ -11628,12 +11616,12 @@
     </row>
     <row r="57" spans="1:16" ht="57.6">
       <c r="A57" s="81" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B57" s="129" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B57" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="81" t="s">
@@ -11678,12 +11666,12 @@
     </row>
     <row r="58" spans="1:16" ht="57.6">
       <c r="A58" s="81" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B58" s="129" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B58" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="126" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="81" t="s">
@@ -11728,12 +11716,12 @@
     </row>
     <row r="59" spans="1:16" ht="57.6">
       <c r="A59" s="81" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B59" s="129" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B59" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="134" t="s">
+      <c r="C59" s="130" t="s">
         <v>214</v>
       </c>
       <c r="D59" s="81" t="s">
@@ -11778,12 +11766,12 @@
     </row>
     <row r="60" spans="1:16" ht="57.6">
       <c r="A60" s="81" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B60" s="129" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B60" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="130" t="s">
+      <c r="C60" s="126" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="81" t="s">
@@ -11828,12 +11816,12 @@
     </row>
     <row r="61" spans="1:16" ht="57.6">
       <c r="A61" s="81" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B61" s="129" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B61" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="134" t="s">
+      <c r="C61" s="130" t="s">
         <v>226</v>
       </c>
       <c r="D61" s="81" t="s">
@@ -11878,12 +11866,12 @@
     </row>
     <row r="62" spans="1:16" ht="72">
       <c r="A62" s="81" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B62" s="129" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B62" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="134" t="s">
+      <c r="C62" s="130" t="s">
         <v>249</v>
       </c>
       <c r="D62" s="81" t="s">
@@ -11928,12 +11916,12 @@
     </row>
     <row r="63" spans="1:16" ht="72">
       <c r="A63" s="81" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B63" s="129" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B63" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="126" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="81" t="s">
@@ -11978,12 +11966,12 @@
     </row>
     <row r="64" spans="1:16" ht="86.4">
       <c r="A64" s="81" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B64" s="129" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B64" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="130" t="s">
+      <c r="C64" s="126" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="81" t="s">
@@ -12028,12 +12016,12 @@
     </row>
     <row r="65" spans="1:21" ht="86.4">
       <c r="A65" s="81" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B65" s="129" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B65" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="81" t="s">
@@ -12078,12 +12066,12 @@
     </row>
     <row r="66" spans="1:21" ht="86.4">
       <c r="A66" s="81" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B66" s="129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B66" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="130" t="s">
+      <c r="C66" s="126" t="s">
         <v>103</v>
       </c>
       <c r="D66" s="81" t="s">
@@ -12128,12 +12116,12 @@
     </row>
     <row r="67" spans="1:21" ht="57.6">
       <c r="A67" s="81" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B67" s="129" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B67" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="134" t="s">
+      <c r="C67" s="130" t="s">
         <v>214</v>
       </c>
       <c r="D67" s="81" t="s">
@@ -12178,12 +12166,12 @@
     </row>
     <row r="68" spans="1:21" ht="57.6">
       <c r="A68" s="81" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B68" s="129" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B68" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="130" t="s">
+      <c r="C68" s="126" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="81" t="s">
@@ -12228,12 +12216,12 @@
     </row>
     <row r="69" spans="1:21" ht="43.2">
       <c r="A69" s="81" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B69" s="129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B69" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="134" t="s">
+      <c r="C69" s="130" t="s">
         <v>112</v>
       </c>
       <c r="D69" s="81" t="s">
@@ -12278,12 +12266,12 @@
     </row>
     <row r="70" spans="1:21" ht="57.6">
       <c r="A70" s="81" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B70" s="127" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B70" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="128" t="s">
+      <c r="C70" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D70" s="81" t="s">
@@ -12328,12 +12316,12 @@
     </row>
     <row r="71" spans="1:21" ht="43.2">
       <c r="A71" s="81" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B71" s="135" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B71" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="136" t="s">
+      <c r="C71" s="132" t="s">
         <v>113</v>
       </c>
       <c r="D71" s="81" t="s">
@@ -12378,12 +12366,12 @@
     </row>
     <row r="72" spans="1:21" ht="86.4">
       <c r="A72" s="81" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B72" s="129" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B72" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="137" t="s">
+      <c r="C72" s="133" t="s">
         <v>251</v>
       </c>
       <c r="D72" s="81" t="s">
@@ -12428,12 +12416,12 @@
     </row>
     <row r="73" spans="1:21" ht="57.6">
       <c r="A73" s="81" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B73" s="127" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B73" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="124" t="s">
         <v>107</v>
       </c>
       <c r="D73" s="81" t="s">
@@ -12478,12 +12466,12 @@
     </row>
     <row r="74" spans="1:21" ht="57.6">
       <c r="A74" s="81" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B74" s="127" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B74" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="128" t="s">
+      <c r="C74" s="124" t="s">
         <v>110</v>
       </c>
       <c r="D74" s="81" t="s">
@@ -12528,12 +12516,12 @@
     </row>
     <row r="75" spans="1:21" ht="57.6">
       <c r="A75" s="81" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B75" s="129" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B75" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="130" t="s">
+      <c r="C75" s="126" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="81" t="s">
@@ -12578,12 +12566,12 @@
     </row>
     <row r="76" spans="1:21" ht="43.2">
       <c r="A76" s="81" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B76" s="129" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B76" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="130" t="s">
+      <c r="C76" s="126" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="81" t="s">
@@ -12628,12 +12616,12 @@
     </row>
     <row r="77" spans="1:21" ht="43.2">
       <c r="A77" s="81" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B77" s="129" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B77" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="130" t="s">
+      <c r="C77" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="81" t="s">
@@ -12678,12 +12666,12 @@
     </row>
     <row r="78" spans="1:21" ht="57.6">
       <c r="A78" s="81" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B78" s="135" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B78" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="136" t="s">
+      <c r="C78" s="132" t="s">
         <v>103</v>
       </c>
       <c r="D78" s="81" t="s">
@@ -12729,34 +12717,34 @@
     </row>
     <row r="79" spans="1:21" ht="60.45" customHeight="1">
       <c r="A79" s="81" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B79" s="140" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B79" s="136" t="s">
         <v>118</v>
       </c>
       <c r="C79" s="97" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E79" s="81" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F79" s="81" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G79" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H79" s="81" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I79" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J79" s="81" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K79" s="81" t="s">
         <v>312</v>
@@ -12780,34 +12768,34 @@
     </row>
     <row r="80" spans="1:21" ht="73.5" customHeight="1">
       <c r="A80" s="81" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B80" s="94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C80" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="D80" s="94" t="s">
         <v>965</v>
       </c>
-      <c r="D80" s="94" t="s">
-        <v>966</v>
-      </c>
       <c r="E80" s="81" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F80" s="81" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G80" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H80" s="81" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I80" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J80" s="81" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K80" s="81" t="s">
         <v>312</v>
@@ -12831,34 +12819,34 @@
     </row>
     <row r="81" spans="1:21" ht="72.45" customHeight="1">
       <c r="A81" s="81" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B81" s="94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C81" s="97" t="s">
+        <v>964</v>
+      </c>
+      <c r="D81" s="94" t="s">
         <v>965</v>
       </c>
-      <c r="D81" s="94" t="s">
-        <v>966</v>
-      </c>
       <c r="E81" s="81" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F81" s="81" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G81" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H81" s="81" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I81" s="81" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J81" s="81" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K81" s="81" t="s">
         <v>312</v>
@@ -12882,7 +12870,7 @@
     </row>
     <row r="82" spans="1:21" ht="82.95" customHeight="1">
       <c r="A82" s="81" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B82" s="96" t="s">
         <v>122</v>
@@ -12891,25 +12879,25 @@
         <v>103</v>
       </c>
       <c r="D82" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E82" s="80" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F82" s="81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G82" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H82" s="81" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I82" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J82" s="81" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K82" s="81" t="s">
         <v>312</v>
@@ -12927,40 +12915,40 @@
         <v>24</v>
       </c>
       <c r="P82" s="110" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="U82" s="1"/>
     </row>
     <row r="83" spans="1:21" ht="89.55" customHeight="1">
       <c r="A83" s="81" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B83" s="95" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C83" s="97" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D83" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E83" s="81" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F83" s="81" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G83" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H83" s="81" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I83" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J83" s="81" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K83" s="81" t="s">
         <v>312</v>
@@ -12984,7 +12972,7 @@
     </row>
     <row r="84" spans="1:21" ht="81" customHeight="1">
       <c r="A84" s="81" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B84" s="95" t="s">
         <v>126</v>
@@ -12993,25 +12981,25 @@
         <v>15</v>
       </c>
       <c r="D84" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E84" s="81" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F84" s="81" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G84" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H84" s="81" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I84" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J84" s="80" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="K84" s="81" t="s">
         <v>312</v>
@@ -13035,34 +13023,34 @@
     </row>
     <row r="85" spans="1:21" ht="77.55" customHeight="1">
       <c r="A85" s="81" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B85" s="94" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D85" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E85" s="81" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F85" s="81" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G85" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H85" s="81" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I85" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J85" s="81" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K85" s="81" t="s">
         <v>312</v>
@@ -13080,13 +13068,13 @@
         <v>24</v>
       </c>
       <c r="P85" s="110" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="U85" s="1"/>
     </row>
     <row r="86" spans="1:21" ht="62.55" customHeight="1">
       <c r="A86" s="81" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B86" s="94" t="s">
         <v>123</v>
@@ -13095,25 +13083,25 @@
         <v>12</v>
       </c>
       <c r="D86" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E86" s="81" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F86" s="81" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G86" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H86" s="81" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I86" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J86" s="80" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K86" s="81" t="s">
         <v>312</v>
@@ -13137,34 +13125,34 @@
     </row>
     <row r="87" spans="1:21" ht="107.55" customHeight="1">
       <c r="A87" s="81" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B87" s="94" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D87" s="94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E87" s="81" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F87" s="81" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G87" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H87" s="81" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I87" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J87" s="81" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K87" s="81" t="s">
         <v>312</v>
@@ -13188,7 +13176,7 @@
     </row>
     <row r="88" spans="1:21" ht="89.55" customHeight="1">
       <c r="A88" s="81" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B88" s="94" t="s">
         <v>125</v>
@@ -13197,25 +13185,25 @@
         <v>14</v>
       </c>
       <c r="D88" s="94" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E88" s="81" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F88" s="81" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G88" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H88" s="81" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I88" s="81" t="s">
         <v>1017</v>
       </c>
-      <c r="I88" s="81" t="s">
-        <v>1018</v>
-      </c>
       <c r="J88" s="81" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K88" s="81" t="s">
         <v>312</v>
@@ -13239,7 +13227,7 @@
     </row>
     <row r="89" spans="1:21" ht="117" customHeight="1">
       <c r="A89" s="81" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B89" s="94" t="s">
         <v>121</v>
@@ -13248,25 +13236,25 @@
         <v>10</v>
       </c>
       <c r="D89" s="94" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E89" s="81" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F89" s="81" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G89" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H89" s="81" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I89" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J89" s="80" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K89" s="81" t="s">
         <v>312</v>
@@ -13290,34 +13278,34 @@
     </row>
     <row r="90" spans="1:21" ht="106.05" customHeight="1">
       <c r="A90" s="81" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B90" s="94" t="s">
+        <v>974</v>
+      </c>
+      <c r="C90" s="99" t="s">
+        <v>970</v>
+      </c>
+      <c r="D90" s="94" t="s">
         <v>975</v>
       </c>
-      <c r="C90" s="99" t="s">
-        <v>971</v>
-      </c>
-      <c r="D90" s="94" t="s">
-        <v>976</v>
-      </c>
       <c r="E90" s="81" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F90" s="81" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G90" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H90" s="81" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I90" s="81" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J90" s="81" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K90" s="81" t="s">
         <v>312</v>
@@ -13341,7 +13329,7 @@
     </row>
     <row r="91" spans="1:21" ht="99.45" customHeight="1">
       <c r="A91" s="81" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B91" s="95" t="s">
         <v>121</v>
@@ -13350,25 +13338,25 @@
         <v>10</v>
       </c>
       <c r="D91" s="94" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E91" s="81" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F91" s="80" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G91" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H91" s="81" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I91" s="81" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J91" s="80" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K91" s="81" t="s">
         <v>312</v>
@@ -13386,13 +13374,13 @@
         <v>24</v>
       </c>
       <c r="P91" s="110" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="U91" s="1"/>
     </row>
     <row r="92" spans="1:21" ht="65.55" customHeight="1">
       <c r="A92" s="81" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B92" s="95" t="s">
         <v>124</v>
@@ -13401,25 +13389,25 @@
         <v>13</v>
       </c>
       <c r="D92" s="94" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E92" s="81" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F92" s="81" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G92" s="81" t="s">
         <v>312</v>
       </c>
       <c r="H92" s="81" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I92" s="81" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J92" s="81" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K92" s="81" t="s">
         <v>312</v>
@@ -13437,13 +13425,13 @@
         <v>24</v>
       </c>
       <c r="P92" s="110" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="1"/>
       <c r="C93" s="81"/>
-      <c r="D93" s="138"/>
+      <c r="D93" s="134"/>
       <c r="E93" s="81"/>
       <c r="F93" s="81"/>
       <c r="G93" s="81"/>
@@ -14207,9 +14195,6 @@
   <autoFilter ref="L25:M146" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L2:L24">
-    <cfRule type="cellIs" priority="13" operator="equal">
-      <formula>"Not_Executed"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"Not_Executed"</formula>
     </cfRule>
@@ -14222,6 +14207,9 @@
     <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal">
+      <formula>"Not_Executed"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -14230,28 +14218,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:M50">
-    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="94" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="95" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
-      <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:M62">
-    <cfRule type="cellIs" dxfId="47" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="93" operator="equal">
+      <formula>"Not_Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="96" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="99" operator="equal">
-      <formula>"Passed"</formula>
+    <cfRule type="cellIs" priority="97" operator="equal">
+      <formula>"Not_Executed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="45" priority="98" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="97" operator="equal">
-      <formula>"Not_Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="93" operator="equal">
-      <formula>"Not_Executed"</formula>
+    <cfRule type="cellIs" dxfId="44" priority="99" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L73:M92">
@@ -14286,43 +14274,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:N72">
-    <cfRule type="cellIs" dxfId="35" priority="84" operator="equal">
-      <formula>"Failed"</formula>
+    <cfRule type="cellIs" dxfId="35" priority="79" operator="equal">
+      <formula>"Not_Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="82" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="82" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="79" operator="equal">
-      <formula>"Not_Executed"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="83" operator="equal">
       <formula>"Not_Executed"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="84" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="85" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M24">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+      <formula>"Not_Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="48" operator="equal">
       <formula>"Not_Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="49" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="46" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
-      <formula>"Not_Executed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
@@ -14348,49 +14336,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75:N92">
-    <cfRule type="cellIs" dxfId="20" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="58" operator="equal">
+      <formula>"Not_Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="59" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="60" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="61" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="59" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="58" operator="equal">
-      <formula>"Not_Executed"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="62" operator="equal">
       <formula>"Not_Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="63" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="64" operator="equal">
       <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="63" operator="equal">
-      <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78:U91 J93:J146 J147:L162 L163:M216 M217:N1048576">
-    <cfRule type="cellIs" dxfId="14" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="164" operator="equal">
+      <formula>"Not_Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="165" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="166" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="164" operator="equal">
-      <formula>"Not_Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="165" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="166" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="167" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="168" operator="equal">
       <formula>"Not_Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="169" operator="equal">
       <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="170" operator="equal">
+      <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -14408,13 +14396,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.45" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="84.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14440,7 +14431,7 @@
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="187.2">
       <c r="A2" s="89" t="s">
-        <v>893</v>
+        <v>1083</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>13</v>
@@ -14449,11 +14440,11 @@
         <v>763</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="92" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4">
@@ -14486,8 +14477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.45" customHeight="1"/>
@@ -15322,10 +15313,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15412,72 +15403,112 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="45" customFormat="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-    </row>
-    <row r="3" spans="1:20" ht="73.5" customHeight="1">
-      <c r="A3" s="117" t="s">
+    <row r="2" spans="1:20" ht="73.5" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B2" s="67" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C2" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D2" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E2" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F2" s="67" t="s">
         <v>578</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G2" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H2" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K2" s="66" t="s">
         <v>580</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L2" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M2" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N2" s="52" t="s">
         <v>583</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O2" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="S2" s="71">
+        <v>45980</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="57.6">
+      <c r="A3" s="115" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>615</v>
       </c>
       <c r="P3" s="52" t="s">
@@ -15492,19 +15523,19 @@
       <c r="S3" s="71">
         <v>45980</v>
       </c>
-      <c r="T3" s="52" t="s">
-        <v>586</v>
+      <c r="T3" s="46" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="57.6">
-      <c r="A4" s="118" t="s">
-        <v>588</v>
+      <c r="A4" s="115" t="s">
+        <v>589</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>290</v>
@@ -15518,26 +15549,26 @@
       <c r="G4" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="9" t="s">
         <v>579</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4" s="72" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="O4" s="46" t="s">
         <v>615</v>
@@ -15555,18 +15586,18 @@
         <v>45980</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="57.6">
-      <c r="A5" s="119" t="s">
-        <v>589</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="115" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>617</v>
+      <c r="C5" s="9" t="s">
+        <v>623</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>290</v>
@@ -15584,24 +15615,24 @@
         <v>579</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="72" t="s">
-        <v>618</v>
+        <v>103</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>624</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>620</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="O5" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>674</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>615</v>
       </c>
       <c r="P5" s="52" t="s">
@@ -15616,19 +15647,19 @@
       <c r="S5" s="71">
         <v>45980</v>
       </c>
-      <c r="T5" s="46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="57.6">
-      <c r="A6" s="118" t="s">
-        <v>590</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>623</v>
+      <c r="T5" s="38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="33" customFormat="1" ht="86.4">
+      <c r="A6" s="115" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>290</v>
@@ -15636,32 +15667,32 @@
       <c r="E6" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="33" t="s">
         <v>579</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="73" t="s">
-        <v>624</v>
+        <v>107</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>629</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>673</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>674</v>
+        <v>630</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>632</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>615</v>
@@ -15678,19 +15709,19 @@
       <c r="S6" s="71">
         <v>45980</v>
       </c>
-      <c r="T6" s="38" t="s">
-        <v>626</v>
+      <c r="T6" s="46" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="33" customFormat="1" ht="86.4">
-      <c r="A7" s="119" t="s">
-        <v>591</v>
+      <c r="A7" s="115" t="s">
+        <v>592</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>627</v>
+        <v>453</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>290</v>
@@ -15708,22 +15739,22 @@
         <v>579</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="O7" s="33" t="s">
         <v>615</v>
@@ -15741,18 +15772,18 @@
         <v>45980</v>
       </c>
       <c r="T7" s="46" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="33" customFormat="1" ht="86.4">
-      <c r="A8" s="119" t="s">
-        <v>592</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="72">
+      <c r="A8" s="115" t="s">
+        <v>593</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>290</v>
@@ -15770,22 +15801,22 @@
         <v>579</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O8" s="33" t="s">
         <v>615</v>
@@ -15803,18 +15834,18 @@
         <v>45980</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A9" s="119" t="s">
-        <v>593</v>
+      <c r="A9" s="115" t="s">
+        <v>594</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>290</v>
@@ -15832,22 +15863,22 @@
         <v>579</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>615</v>
@@ -15865,18 +15896,18 @@
         <v>45980</v>
       </c>
       <c r="T9" s="46" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A10" s="119" t="s">
-        <v>594</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="33" customFormat="1" ht="57.6">
+      <c r="A10" s="115" t="s">
+        <v>595</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>290</v>
@@ -15894,22 +15925,22 @@
         <v>579</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="O10" s="33" t="s">
         <v>615</v>
@@ -15927,18 +15958,18 @@
         <v>45980</v>
       </c>
       <c r="T10" s="46" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="33" customFormat="1" ht="57.6">
-      <c r="A11" s="119" t="s">
-        <v>595</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="33" customFormat="1" ht="72">
+      <c r="A11" s="115" t="s">
+        <v>596</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>290</v>
@@ -15956,22 +15987,22 @@
         <v>579</v>
       </c>
       <c r="I11" s="63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="O11" s="33" t="s">
         <v>615</v>
@@ -15989,18 +16020,18 @@
         <v>45980</v>
       </c>
       <c r="T11" s="46" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A12" s="119" t="s">
-        <v>596</v>
+      <c r="A12" s="115" t="s">
+        <v>597</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>290</v>
@@ -16018,22 +16049,22 @@
         <v>579</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="O12" s="33" t="s">
         <v>615</v>
@@ -16051,18 +16082,18 @@
         <v>45980</v>
       </c>
       <c r="T12" s="46" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A13" s="119" t="s">
-        <v>597</v>
+      <c r="A13" s="115" t="s">
+        <v>598</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>448</v>
+        <v>575</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>290</v>
@@ -16080,22 +16111,22 @@
         <v>579</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="K13" s="72" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>615</v>
@@ -16113,18 +16144,18 @@
         <v>45980</v>
       </c>
       <c r="T13" s="46" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A14" s="119" t="s">
-        <v>598</v>
+      <c r="A14" s="115" t="s">
+        <v>599</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>290</v>
@@ -16142,22 +16173,22 @@
         <v>579</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K14" s="72" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="N14" s="46" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="O14" s="33" t="s">
         <v>615</v>
@@ -16175,18 +16206,18 @@
         <v>45980</v>
       </c>
       <c r="T14" s="46" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A15" s="119" t="s">
-        <v>599</v>
+      <c r="A15" s="115" t="s">
+        <v>600</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>290</v>
@@ -16204,22 +16235,22 @@
         <v>579</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" s="72" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="O15" s="33" t="s">
         <v>615</v>
@@ -16237,18 +16268,18 @@
         <v>45980</v>
       </c>
       <c r="T15" s="46" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A16" s="119" t="s">
-        <v>600</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="33" customFormat="1" ht="57.6">
+      <c r="A16" s="115" t="s">
+        <v>601</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>575</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>290</v>
@@ -16266,22 +16297,22 @@
         <v>579</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="O16" s="33" t="s">
         <v>615</v>
@@ -16299,18 +16330,18 @@
         <v>45980</v>
       </c>
       <c r="T16" s="46" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="33" customFormat="1" ht="57.6">
-      <c r="A17" s="119" t="s">
-        <v>601</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="33" customFormat="1" ht="100.8">
+      <c r="A17" s="115" t="s">
+        <v>602</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>575</v>
+        <v>453</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>290</v>
@@ -16328,22 +16359,22 @@
         <v>579</v>
       </c>
       <c r="I17" s="63" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="J17" s="65" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K17" s="72" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>615</v>
@@ -16361,18 +16392,18 @@
         <v>45980</v>
       </c>
       <c r="T17" s="46" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="100.8">
-      <c r="A18" s="119" t="s">
-        <v>602</v>
+      <c r="A18" s="115" t="s">
+        <v>603</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>453</v>
+        <v>699</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>290</v>
@@ -16390,22 +16421,22 @@
         <v>579</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="J18" s="65" t="s">
-        <v>111</v>
+        <v>611</v>
       </c>
       <c r="K18" s="72" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>615</v>
@@ -16423,18 +16454,18 @@
         <v>45980</v>
       </c>
       <c r="T18" s="46" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="33" customFormat="1" ht="100.8">
-      <c r="A19" s="119" t="s">
-        <v>603</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="33" customFormat="1" ht="72">
+      <c r="A19" s="115" t="s">
+        <v>604</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>699</v>
+        <v>354</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>290</v>
@@ -16452,22 +16483,22 @@
         <v>579</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J19" s="65" t="s">
-        <v>611</v>
+        <v>107</v>
       </c>
       <c r="K19" s="72" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>615</v>
@@ -16485,18 +16516,18 @@
         <v>45980</v>
       </c>
       <c r="T19" s="46" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A20" s="119" t="s">
-        <v>604</v>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="33" customFormat="1" ht="86.4">
+      <c r="A20" s="115" t="s">
+        <v>605</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>354</v>
+        <v>712</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>290</v>
@@ -16514,22 +16545,22 @@
         <v>579</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K20" s="72" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="O20" s="33" t="s">
         <v>615</v>
@@ -16547,18 +16578,18 @@
         <v>45980</v>
       </c>
       <c r="T20" s="46" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="33" customFormat="1" ht="86.4">
-      <c r="A21" s="119" t="s">
-        <v>605</v>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="33" customFormat="1" ht="72">
+      <c r="A21" s="115" t="s">
+        <v>606</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>290</v>
@@ -16576,22 +16607,22 @@
         <v>579</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="K21" s="72" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>715</v>
+        <v>581</v>
       </c>
       <c r="M21" s="46" t="s">
-        <v>716</v>
+        <v>642</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="O21" s="33" t="s">
         <v>615</v>
@@ -16609,18 +16640,18 @@
         <v>45980</v>
       </c>
       <c r="T21" s="46" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A22" s="119" t="s">
-        <v>606</v>
+      <c r="A22" s="115" t="s">
+        <v>607</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>719</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>290</v>
@@ -16638,22 +16669,22 @@
         <v>579</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="M22" s="46" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>722</v>
+        <v>649</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>615</v>
@@ -16674,15 +16705,15 @@
         <v>723</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="33" customFormat="1" ht="72">
-      <c r="A23" s="119" t="s">
-        <v>607</v>
+    <row r="23" spans="1:20" s="33" customFormat="1" ht="57.6">
+      <c r="A23" s="115" t="s">
+        <v>608</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>719</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>290</v>
@@ -16700,22 +16731,22 @@
         <v>579</v>
       </c>
       <c r="I23" s="63" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="M23" s="46" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="O23" s="33" t="s">
         <v>615</v>
@@ -16733,18 +16764,18 @@
         <v>45980</v>
       </c>
       <c r="T23" s="46" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="33" customFormat="1" ht="57.6">
-      <c r="A24" s="119" t="s">
-        <v>608</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="33" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A24" s="115" t="s">
+        <v>609</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>719</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>290</v>
@@ -16762,141 +16793,130 @@
         <v>579</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J24" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>727</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>655</v>
-      </c>
-      <c r="O24" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>730</v>
+      </c>
+      <c r="L24" s="75" t="s">
+        <v>659</v>
+      </c>
+      <c r="M24" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="N24" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="O24" s="75" t="s">
         <v>615</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P24" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="77" t="s">
         <v>585</v>
       </c>
-      <c r="R24" s="52" t="s">
+      <c r="R24" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="S24" s="71">
+      <c r="S24" s="78">
         <v>45980</v>
       </c>
-      <c r="T24" s="46" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="33" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A25" s="119" t="s">
-        <v>609</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>729</v>
+      <c r="T24" s="76" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="82" customFormat="1" ht="115.2">
+      <c r="A25" s="115" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>1033</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>548</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="74" t="s">
-        <v>730</v>
-      </c>
-      <c r="L25" s="75" t="s">
-        <v>659</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>660</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>731</v>
-      </c>
-      <c r="O25" s="75" t="s">
-        <v>615</v>
-      </c>
-      <c r="P25" s="77" t="s">
+      <c r="G25" s="52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="J25" s="116"/>
+      <c r="K25" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P25" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="Q25" s="77" t="s">
+      <c r="Q25" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="R25" s="77" t="s">
+      <c r="R25" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="S25" s="78">
+      <c r="S25" s="71">
         <v>45980</v>
       </c>
-      <c r="T25" s="76" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="82" customFormat="1" ht="115.2">
-      <c r="A26" s="52" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>966</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>1035</v>
+    </row>
+    <row r="26" spans="1:20" s="82" customFormat="1" ht="130.19999999999999" thickBot="1">
+      <c r="A26" s="115" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>965</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>1037</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="117" t="s">
         <v>578</v>
       </c>
-      <c r="G26" s="52" t="s">
-        <v>1036</v>
+      <c r="G26" s="82" t="s">
+        <v>291</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="J26" s="120"/>
-      <c r="K26" s="52" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L26" s="52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="118"/>
+      <c r="K26" s="34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L26" s="34" t="s">
         <v>1006</v>
       </c>
-      <c r="M26" s="52" t="s">
-        <v>1023</v>
-      </c>
-      <c r="N26" s="52" t="s">
-        <v>1038</v>
+      <c r="M26" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>1039</v>
       </c>
       <c r="P26" s="52" t="s">
         <v>584</v>
@@ -16911,12 +16931,12 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="82" customFormat="1" ht="130.19999999999999" thickBot="1">
-      <c r="A27" s="82" t="s">
-        <v>1039</v>
+    <row r="27" spans="1:20" s="82" customFormat="1" ht="100.8">
+      <c r="A27" s="115" t="s">
+        <v>1086</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>1040</v>
@@ -16924,30 +16944,26 @@
       <c r="D27" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="34" t="s">
         <v>578</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>291</v>
+        <v>920</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I27" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="122"/>
+        <v>32</v>
+      </c>
       <c r="K27" s="34" t="s">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>994</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>1042</v>
+        <v>1014</v>
+      </c>
+      <c r="M27" s="82" t="s">
+        <v>1030</v>
       </c>
       <c r="P27" s="52" t="s">
         <v>584</v>
@@ -16962,15 +16978,15 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="82" customFormat="1" ht="100.8">
-      <c r="A28" s="82" t="s">
-        <v>1043</v>
+    <row r="28" spans="1:20" s="82" customFormat="1" ht="86.4">
+      <c r="A28" s="115" t="s">
+        <v>1087</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>290</v>
@@ -16979,13 +16995,13 @@
         <v>578</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I28" s="82" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>1003</v>
@@ -16993,7 +17009,7 @@
       <c r="L28" s="34" t="s">
         <v>1015</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="34" t="s">
         <v>1031</v>
       </c>
       <c r="P28" s="52" t="s">
@@ -17009,55 +17025,9 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="82" customFormat="1" ht="86.4">
-      <c r="A29" s="82" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>976</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="G29" s="82" t="s">
-        <v>921</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P29" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q29" s="52" t="s">
-        <v>585</v>
-      </c>
-      <c r="R29" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="S29" s="71">
-        <v>45980</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="P3:P29">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="P2:P28">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
@@ -17081,7 +17051,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P29" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P28" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"New,Assigned,Open,Fixed,Retest,Closed,Reopened,Rejected"</formula1>
     </dataValidation>
   </dataValidations>
